--- a/Documents/BOM prototyping.xlsx
+++ b/Documents/BOM prototyping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Desktop\AWS-Gen4\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AWS PROJECT\AWS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -399,7 +399,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -459,6 +462,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -559,10 +568,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -606,8 +616,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,10 +837,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -838,6 +851,7 @@
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="34.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1209,7 +1223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1256,8 +1270,12 @@
       <c r="G18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="27">
+        <f>1384475-1139000</f>
+        <v>245475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1280,8 +1298,12 @@
       <c r="G19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="27">
+        <f>1388500-1139000-40000</f>
+        <v>209500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1304,8 +1326,12 @@
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="28">
+        <f>I19-70000</f>
+        <v>139500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
@@ -1326,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>60</v>
       </c>
@@ -1340,10 +1366,10 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>61</v>
       </c>
@@ -1354,7 +1380,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>119</v>
       </c>
@@ -1377,7 +1403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1401,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1425,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1449,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -1473,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -1497,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -1521,7 +1547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
